--- a/testplans/RV64VM.xlsx
+++ b/testplans/RV64VM.xlsx
@@ -164,7 +164,7 @@
     <t>Verify that all TLB entries are invalidated and a TLB miss is incurred after running SFENCE</t>
   </si>
   <si>
-    <t>Testcase</t>
+    <t>Assertion Coverage</t>
   </si>
   <si>
     <t>N/A</t>
